--- a/ProjectAutomationFiles/testcases/Exmaple_Scenarios.xlsx
+++ b/ProjectAutomationFiles/testcases/Exmaple_Scenarios.xlsx
@@ -70,13 +70,13 @@
     <t>Registration_testdata|Registration_Details|1</t>
   </si>
   <si>
-    <t>Registration_testdata|Registration_Details|2</t>
-  </si>
-  <si>
     <t>Example.001</t>
   </si>
   <si>
     <t>home_Page.registrationOnPopUp</t>
+  </si>
+  <si>
+    <t>Registration_testdata|Registration_Details|1-2</t>
   </si>
 </sst>
 </file>
@@ -433,7 +433,7 @@
   <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -471,7 +471,7 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
@@ -509,7 +509,7 @@
         <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F6" t="s">
         <v>17</v>
@@ -520,7 +520,7 @@
         <v>16</v>
       </c>
       <c r="F7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" spans="4:4" x14ac:dyDescent="0.25">
